--- a/TestDataXls/Notes.xlsx
+++ b/TestDataXls/Notes.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B827BC3-5D3D-42DA-80C3-E920F95946E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>password</t>
   </si>
@@ -89,22 +90,25 @@
     <t>user</t>
   </si>
   <si>
-    <t>tutor40@nkt.com</t>
-  </si>
-  <si>
     <t>This article is about the Chinese martial art. For the philosophical concept</t>
   </si>
   <si>
     <t>Folk session starts</t>
   </si>
   <si>
-    <t>Folk sessi-3</t>
+    <t>srinivasesaivanan6324@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>Cello Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,14 +166,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -267,6 +270,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -302,6 +322,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,31 +514,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="35" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
     <col min="18" max="18" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -517,14 +554,14 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -540,14 +577,14 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -563,14 +600,14 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -583,14 +620,14 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -606,14 +643,14 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -623,20 +660,20 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5" t="s">
         <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -652,7 +689,7 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G7">
@@ -661,38 +698,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="D3:D6" r:id="rId6" display="tutor36@nkt.com"/>
-    <hyperlink ref="D2" r:id="rId7"/>
-    <hyperlink ref="E7" r:id="rId8"/>
-    <hyperlink ref="D7" r:id="rId9"/>
-    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{93AB84F4-A6BD-4F33-ABE9-BA338B5B28A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="72.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="72.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -706,7 +741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -714,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>10</v>
       </c>

--- a/TestDataXls/Notes.xlsx
+++ b/TestDataXls/Notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B827BC3-5D3D-42DA-80C3-E920F95946E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0632A8A6-36EE-4EE5-84B5-B06F99984760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>password</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Bharat mfi</t>
   </si>
   <si>
-    <t>Bharat mvg</t>
-  </si>
-  <si>
     <t>tutor36@nkt.com</t>
   </si>
   <si>
@@ -103,6 +100,12 @@
   </si>
   <si>
     <t>Cello Group</t>
+  </si>
+  <si>
+    <t>tutor53@nkt.com</t>
+  </si>
+  <si>
+    <t>Pencil 5</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,19 +569,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -589,13 +592,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -615,7 +618,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -632,19 +635,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -655,19 +658,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -678,19 +681,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -701,14 +704,15 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E6" r:id="rId8" xr:uid="{93AB84F4-A6BD-4F33-ABE9-BA338B5B28A3}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{93AB84F4-A6BD-4F33-ABE9-BA338B5B28A3}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{C3871253-2911-4788-B834-431459BF3B32}"/>
+    <hyperlink ref="D5" r:id="rId9" xr:uid="{0FDE1E69-DA1E-493D-932D-42DF27113A7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -735,24 +739,24 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">

--- a/TestDataXls/Notes.xlsx
+++ b/TestDataXls/Notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0632A8A6-36EE-4EE5-84B5-B06F99984760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C546C-9A8E-4667-BD39-654BBE1377AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>password</t>
   </si>
@@ -105,7 +105,13 @@
     <t>tutor53@nkt.com</t>
   </si>
   <si>
-    <t>Pencil 5</t>
+    <t>What is cloud</t>
+  </si>
+  <si>
+    <t>Cloud computing is the on-demand availability of computer system resources, especially data storage and computing power, without direct active management by the user. Large clouds often have functions distributed over multiple locations, each of which is a data center.</t>
+  </si>
+  <si>
+    <t>Steel month variable</t>
   </si>
 </sst>
 </file>
@@ -521,7 +527,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -721,7 +727,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,13 +756,27 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">

--- a/TestDataXls/Notes.xlsx
+++ b/TestDataXls/Notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C546C-9A8E-4667-BD39-654BBE1377AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA44802F-89FE-437F-8DF2-81B4DF63DEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>password</t>
   </si>
@@ -93,15 +93,6 @@
     <t>Folk session starts</t>
   </si>
   <si>
-    <t>srinivasesaivanan6324@gmail.com</t>
-  </si>
-  <si>
-    <t>Test@1234</t>
-  </si>
-  <si>
-    <t>Cello Group</t>
-  </si>
-  <si>
     <t>tutor53@nkt.com</t>
   </si>
   <si>
@@ -111,7 +102,10 @@
     <t>Cloud computing is the on-demand availability of computer system resources, especially data storage and computing power, without direct active management by the user. Large clouds often have functions distributed over multiple locations, each of which is a data center.</t>
   </si>
   <si>
-    <t>Steel month variable</t>
+    <t>Mf class 1</t>
+  </si>
+  <si>
+    <t>Mv class 2</t>
   </si>
 </sst>
 </file>
@@ -527,7 +521,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D5" sqref="D5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,13 +641,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -664,19 +658,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -713,12 +707,13 @@
     <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E6" r:id="rId7" xr:uid="{93AB84F4-A6BD-4F33-ABE9-BA338B5B28A3}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{C3871253-2911-4788-B834-431459BF3B32}"/>
-    <hyperlink ref="D5" r:id="rId9" xr:uid="{0FDE1E69-DA1E-493D-932D-42DF27113A7F}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{C3871253-2911-4788-B834-431459BF3B32}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{0FDE1E69-DA1E-493D-932D-42DF27113A7F}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{8FE4CE47-2D1E-4C34-A6A1-F574BE1FD9A2}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{2BD153BB-4E25-4098-873E-E7853ED027F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -773,10 +768,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">

--- a/TestDataXls/Notes.xlsx
+++ b/TestDataXls/Notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA44802F-89FE-437F-8DF2-81B4DF63DEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA23DF13-E1C3-4EA4-BC9D-9872BBD64A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,10 +102,10 @@
     <t>Cloud computing is the on-demand availability of computer system resources, especially data storage and computing power, without direct active management by the user. Large clouds often have functions distributed over multiple locations, each of which is a data center.</t>
   </si>
   <si>
-    <t>Mf class 1</t>
-  </si>
-  <si>
     <t>Mv class 2</t>
+  </si>
+  <si>
+    <t>PHP session 4</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,8 +646,8 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
+      <c r="F5" t="s">
+        <v>29</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -658,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -670,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>5</v>

--- a/TestDataXls/Notes.xlsx
+++ b/TestDataXls/Notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA23DF13-E1C3-4EA4-BC9D-9872BBD64A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7DED54-AA90-47C3-95D1-DC87EE3205AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,21 @@
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Notes_list" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>password</t>
   </si>
@@ -81,12 +90,6 @@
     <t>Mvg Tamil</t>
   </si>
   <si>
-    <t>test.teacher2@whyceeyes.com</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>This article is about the Chinese martial art. For the philosophical concept</t>
   </si>
   <si>
@@ -105,7 +108,34 @@
     <t>Mv class 2</t>
   </si>
   <si>
-    <t>PHP session 4</t>
+    <t>Java session 8</t>
+  </si>
+  <si>
+    <t>paint sess 1</t>
+  </si>
+  <si>
+    <t>paint fix 1</t>
+  </si>
+  <si>
+    <t>paint var 1</t>
+  </si>
+  <si>
+    <t>paint sess 1 ind</t>
+  </si>
+  <si>
+    <t>paint fix 1 ind</t>
+  </si>
+  <si>
+    <t>tutor54@nkt.com</t>
+  </si>
+  <si>
+    <t>srinivasesaivanan6324@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>clarinet session 4 multi</t>
   </si>
 </sst>
 </file>
@@ -518,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,19 +665,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -664,13 +694,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -687,16 +717,131 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -705,24 +850,29 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E5" r:id="rId7" xr:uid="{C3871253-2911-4788-B834-431459BF3B32}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{0FDE1E69-DA1E-493D-932D-42DF27113A7F}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{8FE4CE47-2D1E-4C34-A6A1-F574BE1FD9A2}"/>
-    <hyperlink ref="E6" r:id="rId10" xr:uid="{2BD153BB-4E25-4098-873E-E7853ED027F2}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{C3871253-2911-4788-B834-431459BF3B32}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{0FDE1E69-DA1E-493D-932D-42DF27113A7F}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{8FE4CE47-2D1E-4C34-A6A1-F574BE1FD9A2}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{2BD153BB-4E25-4098-873E-E7853ED027F2}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{8F65300A-3BEE-41CA-8AC0-7710A4239EE0}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{5C6FDDAF-D5D0-4870-BA9C-3D10BE9EA82A}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{F5DEF6E9-C87C-438F-9CEA-0B21023196BE}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{541B7565-94B3-480D-B6F1-852793D1997B}"/>
+    <hyperlink ref="E10" r:id="rId13" xr:uid="{202E9DF2-1A62-4EED-AAD3-33DEDFAEE07D}"/>
+    <hyperlink ref="E11" r:id="rId14" xr:uid="{620B0D39-048E-40B4-81EF-D3E14B5174D5}"/>
+    <hyperlink ref="E12" r:id="rId15" xr:uid="{0464FFA3-79D8-4D34-B764-81E84856DEAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,10 +904,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -768,14 +918,14 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
         <v>10</v>
       </c>
     </row>

--- a/TestDataXls/Notes.xlsx
+++ b/TestDataXls/Notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7DED54-AA90-47C3-95D1-DC87EE3205AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F64C611-B04E-42B3-9527-26A87B95293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>password</t>
   </si>
@@ -120,29 +120,26 @@
     <t>paint var 1</t>
   </si>
   <si>
-    <t>paint sess 1 ind</t>
-  </si>
-  <si>
-    <t>paint fix 1 ind</t>
-  </si>
-  <si>
     <t>tutor54@nkt.com</t>
   </si>
   <si>
-    <t>srinivasesaivanan6324@gmail.com</t>
-  </si>
-  <si>
-    <t>Test@1234</t>
-  </si>
-  <si>
-    <t>clarinet session 4 multi</t>
+    <t>tutor60@nkt.com</t>
+  </si>
+  <si>
+    <t>Pilot sess 6</t>
+  </si>
+  <si>
+    <t>Pilot MV 6</t>
+  </si>
+  <si>
+    <t>Pilot MF 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +173,12 @@
       <color rgb="FF202122"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -717,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -740,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -763,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -780,19 +783,19 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -803,19 +806,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -826,25 +829,26 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
         <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -858,9 +862,9 @@
     <hyperlink ref="D7" r:id="rId10" xr:uid="{5C6FDDAF-D5D0-4870-BA9C-3D10BE9EA82A}"/>
     <hyperlink ref="E8" r:id="rId11" xr:uid="{F5DEF6E9-C87C-438F-9CEA-0B21023196BE}"/>
     <hyperlink ref="E9" r:id="rId12" xr:uid="{541B7565-94B3-480D-B6F1-852793D1997B}"/>
-    <hyperlink ref="E10" r:id="rId13" xr:uid="{202E9DF2-1A62-4EED-AAD3-33DEDFAEE07D}"/>
-    <hyperlink ref="E11" r:id="rId14" xr:uid="{620B0D39-048E-40B4-81EF-D3E14B5174D5}"/>
-    <hyperlink ref="E12" r:id="rId15" xr:uid="{0464FFA3-79D8-4D34-B764-81E84856DEAC}"/>
+    <hyperlink ref="E10:E12" r:id="rId13" display="Admin@123" xr:uid="{EB5198AE-F8A2-4207-A56A-96847C51281F}"/>
+    <hyperlink ref="D10" r:id="rId14" xr:uid="{9E517CB8-4353-4081-872F-BC5A32A3E77F}"/>
+    <hyperlink ref="D11:D12" r:id="rId15" display="tutor60@nkt.com" xr:uid="{DABAE909-5262-4659-B76B-F3494FF93EC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
